--- a/data_year/zb/建筑业/按登记注册类型分建筑业企业利润总额.xlsx
+++ b/data_year/zb/建筑业/按登记注册类型分建筑业企业利润总额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,625 +478,377 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>189.7695</v>
+        <v>3356.6815</v>
       </c>
       <c r="C2" t="n">
-        <v>21.5894</v>
+        <v>444.4172</v>
       </c>
       <c r="D2" t="n">
-        <v>1.3084</v>
+        <v>26.7419</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0341</v>
+        <v>14.0422</v>
       </c>
       <c r="F2" t="n">
-        <v>192.0635</v>
+        <v>3409.07409</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9856</v>
+        <v>25.6507</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2702</v>
+        <v>6.3565</v>
       </c>
       <c r="I2" t="n">
-        <v>75.633</v>
+        <v>146.0362</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>288.2973</v>
+        <v>4112.30784</v>
       </c>
       <c r="C3" t="n">
-        <v>32.7049</v>
+        <v>473.00236</v>
       </c>
       <c r="D3" t="n">
-        <v>2.3375</v>
+        <v>29.88257</v>
       </c>
       <c r="E3" t="n">
-        <v>0.114</v>
+        <v>14.36624</v>
       </c>
       <c r="F3" t="n">
-        <v>294.3904</v>
+        <v>4168.32736</v>
       </c>
       <c r="G3" t="n">
-        <v>3.7556</v>
+        <v>26.13695</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3489</v>
+        <v>5.49685</v>
       </c>
       <c r="I3" t="n">
-        <v>78.7341</v>
+        <v>171.41243</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>365.2414</v>
+        <v>4717.8249599999</v>
       </c>
       <c r="C4" t="n">
-        <v>45.5858</v>
+        <v>537.6582</v>
       </c>
       <c r="D4" t="n">
-        <v>2.6947</v>
+        <v>26.56131</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0728</v>
+        <v>15.97678</v>
       </c>
       <c r="F4" t="n">
-        <v>370.3532</v>
+        <v>4776.1415499999</v>
       </c>
       <c r="G4" t="n">
-        <v>2.4171</v>
+        <v>31.75528</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.167</v>
+        <v>8.00977</v>
       </c>
       <c r="I4" t="n">
-        <v>75.7413</v>
+        <v>188.90809</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>514.0731</v>
-      </c>
-      <c r="C5" t="n">
-        <v>54.0339</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.9229</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.11</v>
-      </c>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>519.8715999999999</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2.8756</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.1617</v>
-      </c>
-      <c r="I5" t="n">
-        <v>78.5771</v>
-      </c>
+        <v>5575</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+          <t>2014年</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6344.67164</v>
+      </c>
+      <c r="C6" t="n">
+        <v>564.81079</v>
+      </c>
+      <c r="D6" t="n">
+        <v>39.46685</v>
+      </c>
+      <c r="E6" t="n">
+        <v>29.03192</v>
+      </c>
       <c r="F6" t="n">
-        <v>719.24681</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+        <v>6407.12991</v>
+      </c>
+      <c r="G6" t="n">
+        <v>22.99142</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4.54797</v>
+      </c>
+      <c r="I6" t="n">
+        <v>184.42809</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>891.33737</v>
+        <v>6387.4099299999</v>
       </c>
       <c r="C7" t="n">
-        <v>141.42859</v>
+        <v>633.30633</v>
       </c>
       <c r="D7" t="n">
-        <v>11.70068</v>
+        <v>33.1119</v>
       </c>
       <c r="E7" t="n">
-        <v>2.32676</v>
+        <v>22.78484</v>
       </c>
       <c r="F7" t="n">
-        <v>906.6623</v>
+        <v>6451.2324899999</v>
       </c>
       <c r="G7" t="n">
-        <v>3.6242</v>
+        <v>30.71066</v>
       </c>
       <c r="H7" t="n">
-        <v>1.00141</v>
+        <v>7.00922</v>
       </c>
       <c r="I7" t="n">
-        <v>80.70377999999999</v>
+        <v>170.10865</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1164.09093</v>
+        <v>6919.05919</v>
       </c>
       <c r="C8" t="n">
-        <v>176.5849</v>
+        <v>620.24574</v>
       </c>
       <c r="D8" t="n">
-        <v>22.72801</v>
+        <v>31.78671</v>
       </c>
       <c r="E8" t="n">
-        <v>17.30288</v>
+        <v>25.95996</v>
       </c>
       <c r="F8" t="n">
-        <v>1193.0744</v>
+        <v>6986.04669</v>
       </c>
       <c r="G8" t="n">
-        <v>6.25549</v>
+        <v>35.20079</v>
       </c>
       <c r="H8" t="n">
-        <v>0.52322</v>
+        <v>10.19956</v>
       </c>
       <c r="I8" t="n">
-        <v>82.86660000000001</v>
+        <v>171.82765</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1524.39265</v>
+        <v>7419.45219</v>
       </c>
       <c r="C9" t="n">
-        <v>231.32623</v>
+        <v>713.43417</v>
       </c>
       <c r="D9" t="n">
-        <v>27.86197</v>
+        <v>30.45096</v>
       </c>
       <c r="E9" t="n">
-        <v>17.11779</v>
+        <v>20.67125</v>
       </c>
       <c r="F9" t="n">
-        <v>1561.12248</v>
+        <v>7491.77778</v>
       </c>
       <c r="G9" t="n">
-        <v>8.86786</v>
+        <v>41.87463</v>
       </c>
       <c r="H9" t="n">
-        <v>1.33193</v>
+        <v>7.95639</v>
       </c>
       <c r="I9" t="n">
-        <v>98.40215000000001</v>
+        <v>152.20388</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2166.47305</v>
+        <v>7888.85523</v>
       </c>
       <c r="C10" t="n">
-        <v>335.39612</v>
+        <v>813.46387</v>
       </c>
       <c r="D10" t="n">
-        <v>22.10142</v>
+        <v>48.45486</v>
       </c>
       <c r="E10" t="n">
-        <v>11.24596</v>
+        <v>32.71165</v>
       </c>
       <c r="F10" t="n">
-        <v>2201.83887</v>
+        <v>7974.8233</v>
       </c>
       <c r="G10" t="n">
-        <v>13.2644</v>
+        <v>37.51321</v>
       </c>
       <c r="H10" t="n">
-        <v>2.95926</v>
+        <v>13.26328</v>
       </c>
       <c r="I10" t="n">
-        <v>140.57726</v>
+        <v>133.43514</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2677.76865</v>
+        <v>8180.37069</v>
       </c>
       <c r="C11" t="n">
-        <v>365.62468</v>
+        <v>907.8995</v>
       </c>
       <c r="D11" t="n">
-        <v>22.52682</v>
+        <v>50.48115</v>
       </c>
       <c r="E11" t="n">
-        <v>8.11106</v>
+        <v>36.64684</v>
       </c>
       <c r="F11" t="n">
-        <v>2718.75516</v>
+        <v>8279.54651</v>
       </c>
       <c r="G11" t="n">
-        <v>18.45969</v>
+        <v>48.69467</v>
       </c>
       <c r="H11" t="n">
-        <v>5.18349</v>
+        <v>13.90117</v>
       </c>
       <c r="I11" t="n">
-        <v>136.29336</v>
+        <v>108.65111</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3356.6815</v>
+        <v>8305.406779999999</v>
       </c>
       <c r="C12" t="n">
-        <v>444.4172</v>
+        <v>1089.47568</v>
       </c>
       <c r="D12" t="n">
-        <v>26.7419</v>
+        <v>70.48972999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>14.0422</v>
+        <v>25.21452</v>
       </c>
       <c r="F12" t="n">
-        <v>3409.07409</v>
+        <v>8447.73977</v>
       </c>
       <c r="G12" t="n">
-        <v>25.6507</v>
+        <v>71.84326</v>
       </c>
       <c r="H12" t="n">
-        <v>6.3565</v>
+        <v>20.76832</v>
       </c>
       <c r="I12" t="n">
-        <v>146.0362</v>
+        <v>101.13667</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4112.30784</v>
+        <v>8397.72877</v>
       </c>
       <c r="C13" t="n">
-        <v>473.00236</v>
+        <v>1045.68375</v>
       </c>
       <c r="D13" t="n">
-        <v>29.88257</v>
+        <v>9.309340000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>14.36624</v>
+        <v>28.15509</v>
       </c>
       <c r="F13" t="n">
-        <v>4168.32736</v>
+        <v>8470.814539999999</v>
       </c>
       <c r="G13" t="n">
-        <v>26.13695</v>
+        <v>63.77643</v>
       </c>
       <c r="H13" t="n">
-        <v>5.49685</v>
+        <v>11.26765</v>
       </c>
       <c r="I13" t="n">
-        <v>171.41243</v>
+        <v>91.83072</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>4717.8249599999</v>
-      </c>
-      <c r="C14" t="n">
-        <v>537.6582</v>
-      </c>
-      <c r="D14" t="n">
-        <v>26.56131</v>
-      </c>
-      <c r="E14" t="n">
-        <v>15.97678</v>
-      </c>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>4776.1415499999</v>
-      </c>
-      <c r="G14" t="n">
-        <v>31.75528</v>
-      </c>
-      <c r="H14" t="n">
-        <v>8.00977</v>
-      </c>
-      <c r="I14" t="n">
-        <v>188.90809</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
-        <v>5575</v>
-      </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>6344.67164</v>
-      </c>
-      <c r="C16" t="n">
-        <v>564.81079</v>
-      </c>
-      <c r="D16" t="n">
-        <v>39.46685</v>
-      </c>
-      <c r="E16" t="n">
-        <v>29.03192</v>
-      </c>
-      <c r="F16" t="n">
-        <v>6407.12991</v>
-      </c>
-      <c r="G16" t="n">
-        <v>22.99142</v>
-      </c>
-      <c r="H16" t="n">
-        <v>4.54797</v>
-      </c>
-      <c r="I16" t="n">
-        <v>184.42809</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>6387.4099299999</v>
-      </c>
-      <c r="C17" t="n">
-        <v>633.30633</v>
-      </c>
-      <c r="D17" t="n">
-        <v>33.1119</v>
-      </c>
-      <c r="E17" t="n">
-        <v>22.78484</v>
-      </c>
-      <c r="F17" t="n">
-        <v>6451.2324899999</v>
-      </c>
-      <c r="G17" t="n">
-        <v>30.71066</v>
-      </c>
-      <c r="H17" t="n">
-        <v>7.00922</v>
-      </c>
-      <c r="I17" t="n">
-        <v>170.10865</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>6919.05919</v>
-      </c>
-      <c r="C18" t="n">
-        <v>620.24574</v>
-      </c>
-      <c r="D18" t="n">
-        <v>31.78671</v>
-      </c>
-      <c r="E18" t="n">
-        <v>25.95996</v>
-      </c>
-      <c r="F18" t="n">
-        <v>6986.04669</v>
-      </c>
-      <c r="G18" t="n">
-        <v>35.20079</v>
-      </c>
-      <c r="H18" t="n">
-        <v>10.19956</v>
-      </c>
-      <c r="I18" t="n">
-        <v>171.82765</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>7419.45219</v>
-      </c>
-      <c r="C19" t="n">
-        <v>713.43417</v>
-      </c>
-      <c r="D19" t="n">
-        <v>30.45096</v>
-      </c>
-      <c r="E19" t="n">
-        <v>20.67125</v>
-      </c>
-      <c r="F19" t="n">
-        <v>7491.77778</v>
-      </c>
-      <c r="G19" t="n">
-        <v>41.87463</v>
-      </c>
-      <c r="H19" t="n">
-        <v>7.95639</v>
-      </c>
-      <c r="I19" t="n">
-        <v>152.20388</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>7888.85523</v>
-      </c>
-      <c r="C20" t="n">
-        <v>813.46387</v>
-      </c>
-      <c r="D20" t="n">
-        <v>48.45486</v>
-      </c>
-      <c r="E20" t="n">
-        <v>32.71165</v>
-      </c>
-      <c r="F20" t="n">
-        <v>7974.8233</v>
-      </c>
-      <c r="G20" t="n">
-        <v>37.51321</v>
-      </c>
-      <c r="H20" t="n">
-        <v>13.26328</v>
-      </c>
-      <c r="I20" t="n">
-        <v>133.43514</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>8180.37069</v>
-      </c>
-      <c r="C21" t="n">
-        <v>907.8995</v>
-      </c>
-      <c r="D21" t="n">
-        <v>50.48115</v>
-      </c>
-      <c r="E21" t="n">
-        <v>36.64684</v>
-      </c>
-      <c r="F21" t="n">
-        <v>8279.54651</v>
-      </c>
-      <c r="G21" t="n">
-        <v>48.69467</v>
-      </c>
-      <c r="H21" t="n">
-        <v>13.90117</v>
-      </c>
-      <c r="I21" t="n">
-        <v>108.65111</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>8305.406779999999</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1089.47568</v>
-      </c>
-      <c r="D22" t="n">
-        <v>70.48972999999999</v>
-      </c>
-      <c r="E22" t="n">
-        <v>25.21452</v>
-      </c>
-      <c r="F22" t="n">
-        <v>8447.73977</v>
-      </c>
-      <c r="G22" t="n">
-        <v>71.84326</v>
-      </c>
-      <c r="H22" t="n">
-        <v>20.76832</v>
-      </c>
-      <c r="I22" t="n">
-        <v>101.13667</v>
-      </c>
+        <v>8639</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
